--- a/DesignConsole/ImportAllLangs/RewiseJazyky.xlsx
+++ b/DesignConsole/ImportAllLangs/RewiseJazyky.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rw\libs\ImportAllLangs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rw\libs\DesignConsole\ImportAllLangs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kombinace!$P$1:$P$412</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToPZCode!$P$1:$P$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToPZCode!$Q$1:$Q$85</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8944" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="1465">
   <si>
     <t>Chinese (Macau SAR)</t>
   </si>
@@ -4427,13 +4427,16 @@
   </si>
   <si>
     <t>CheckAlias</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4494,6 +4497,22 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4605,7 +4624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4634,6 +4653,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -4949,3135 +4972,3357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1047930"/>
+  <dimension ref="A1:Q1047929"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="6" style="13" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="46" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="13" customWidth="1"/>
+    <col min="12" max="16" width="8.88671875" style="13"/>
+    <col min="17" max="17" width="13.5546875" style="13" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>1456</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>1457</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>1458</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="12" t="s">
         <v>1459</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="12" t="s">
         <v>1463</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>1078</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P2" t="str">
-        <f>IF(LEN(E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2)&gt;0,"1","0")</f>
+      <c r="F2" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q2" s="13" t="str">
+        <f>IF(LEN(F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
         <v>1052</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P48" si="0">IF(LEN(E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3)&gt;0,"1","0")</f>
+      <c r="F3" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q3" s="13" t="str">
+        <f t="shared" ref="Q3:Q48" si="0">IF(LEN(F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
         <v>1025</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P4" t="str">
+      <c r="F4" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
         <v>1067</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P5" t="str">
+      <c r="F5" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
         <v>1101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P6" t="str">
+      <c r="F6" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
         <v>1068</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P7" t="str">
+      <c r="F7" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
         <v>1093</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1461</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="F8" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
         <v>1069</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P9" t="str">
+      <c r="F9" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
         <v>1059</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="E10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P10" t="str">
+      <c r="F10" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
         <v>5146</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="E11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P11" t="str">
+      <c r="F11" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
         <v>1150</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P12" t="str">
+      <c r="F12" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
         <v>1026</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P13" t="str">
+      <c r="F13" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13">
         <v>1027</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P14" t="str">
+      <c r="F14" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
         <v>1155</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P15" t="str">
+      <c r="F15" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
         <v>1050</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P16" t="str">
+      <c r="F16" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
         <v>1029</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P17" t="str">
+      <c r="F17" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
         <v>1030</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P18" t="str">
+      <c r="F18" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
         <v>1043</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P19" t="str">
+      <c r="F19" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
         <v>1033</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P20" t="str">
+      <c r="F20" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13">
         <v>2057</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P21" t="str">
+      <c r="F21" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13">
         <v>1061</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E22" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P22" t="str">
+      <c r="F22" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13">
         <v>1035</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P23" t="str">
+      <c r="F23" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13">
         <v>1036</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="13" t="s">
         <v>1106</v>
       </c>
-      <c r="E24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P24" t="str">
+      <c r="F24" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13">
         <v>1110</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P25" t="str">
+      <c r="F25" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
         <v>1079</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P26" t="str">
+      <c r="F26" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13">
         <v>1031</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="E27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P27" t="str">
+      <c r="F27" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13">
         <v>1032</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E28" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P28" t="str">
+      <c r="F28" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q28" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13">
         <v>1095</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="E29" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P29" t="str">
+      <c r="F29" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13">
         <v>1128</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E30" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P30" t="str">
+      <c r="F30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q30" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13">
         <v>1037</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P31" t="str">
+      <c r="F31" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13">
         <v>1081</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="13" t="s">
         <v>1161</v>
       </c>
-      <c r="E32" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P32" t="str">
+      <c r="F32" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13">
         <v>1038</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E33" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P33" t="str">
+      <c r="F33" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13">
         <v>2052</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E34" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P34" t="str">
+      <c r="F34" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13">
         <v>3076</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E35" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P35" t="str">
+      <c r="F35" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13">
         <v>1039</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E36" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P36" t="str">
+      <c r="F36" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13">
         <v>1136</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E37" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P37" t="str">
+      <c r="F37" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13">
         <v>1057</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E38" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P38" t="str">
+      <c r="F38" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13">
         <v>2108</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E39" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P39" t="str">
+      <c r="F39" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q39" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13">
         <v>1040</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" s="13" t="s">
         <v>1168</v>
       </c>
-      <c r="E40" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P40" t="str">
+      <c r="F40" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q40" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13">
         <v>1041</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E41" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P41" t="str">
+      <c r="F41" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q41" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13">
         <v>1099</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="E42" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P42" t="str">
+      <c r="F42" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q42" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13">
         <v>1107</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E43" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P43" t="str">
+      <c r="F43" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q43" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13">
         <v>1089</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E44" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P44" t="str">
+      <c r="F44" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13">
         <v>1042</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E45" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P45" t="str">
+      <c r="F45" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13">
         <v>1088</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E46" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P46" t="str">
+      <c r="F46" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13">
         <v>1062</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P47" t="str">
+      <c r="F47" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q47" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13">
         <v>1063</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P48" t="str">
+      <c r="F48" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13">
         <v>1071</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E49" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" ref="P49:P60" si="1">IF(LEN(E49&amp;F49&amp;G49&amp;H49&amp;I49&amp;J49)&gt;0,"1","0")</f>
+      <c r="F49" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q49" s="13" t="str">
+        <f t="shared" ref="Q49:Q60" si="1">IF(LEN(F49&amp;G49&amp;H49&amp;I49&amp;J49&amp;K49)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13">
         <v>1086</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E50" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P50" t="str">
+      <c r="F50" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q50" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13">
         <v>1100</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E51" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P51" t="str">
+      <c r="F51" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q51" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13">
         <v>1082</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E52" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P52" t="str">
+      <c r="F52" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q52" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13">
         <v>1153</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E53" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P53" t="str">
+      <c r="F53" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q53" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13">
         <v>1102</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="E54" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P54" t="str">
+      <c r="F54" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q54" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13">
         <v>1104</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P55" t="str">
+      <c r="F55" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q55" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13">
         <v>1044</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E56" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P56" t="str">
+      <c r="F56" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q56" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13">
         <v>1154</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E57" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P57" t="str">
+      <c r="F57" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q57" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13">
         <v>1123</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E58" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P58" t="str">
+      <c r="F58" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q58" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13">
         <v>1065</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E59" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P59" t="str">
+      <c r="F59" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q59" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13">
         <v>1045</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P60" t="str">
+      <c r="F60" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q60" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13">
         <v>1046</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E61" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P61" t="str">
-        <f t="shared" ref="P61:P86" si="2">IF(LEN(E61&amp;F61&amp;G61&amp;H61&amp;I61&amp;J61)&gt;0,"1","0")</f>
+      <c r="F61" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q61" s="13" t="str">
+        <f t="shared" ref="Q61:Q85" si="2">IF(LEN(F61&amp;G61&amp;H61&amp;I61&amp;J61&amp;K61)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13">
         <v>2070</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E62" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P62" t="str">
+      <c r="F62" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q62" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13">
         <v>1094</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="E63" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P63" t="str">
+      <c r="F63" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q63" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
         <v>3179</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E64" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P64" t="str">
+      <c r="F64" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q64" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13">
         <v>1048</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P65" t="str">
+      <c r="F65" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q65" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13">
         <v>1049</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E66" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I66" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J66" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P66" t="str">
+      <c r="F66" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q66" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>3098</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13">
+        <v>2074</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="D67" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J67" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P67" t="str">
+      <c r="E67" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q67" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>2074</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>802</v>
-      </c>
-      <c r="D68" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P68" t="str">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1132</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q68" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>1132</v>
-      </c>
-      <c r="B69" t="s">
-        <v>803</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1074</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D69" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P69" t="str">
+      <c r="E69" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q69" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1074</v>
-      </c>
-      <c r="B70" t="s">
-        <v>805</v>
-      </c>
-      <c r="C70" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" t="s">
-        <v>165</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J70" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P70" t="str">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1051</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q70" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1051</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>811</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P71" t="str">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1060</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q71" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>1060</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" t="s">
-        <v>541</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P72" t="str">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13">
+        <v>3082</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q72" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>3082</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>383</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G73" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H73" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P73" t="str">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1053</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q73" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>1053</v>
-      </c>
-      <c r="B74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" t="s">
-        <v>545</v>
-      </c>
-      <c r="D74" t="s">
-        <v>161</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H74" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J74" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P74" t="str">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1097</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q74" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>1097</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1098</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="D75" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G75" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J75" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P75" t="str">
+      <c r="E75" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q75" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>1098</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>380</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P76" t="str">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1054</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q76" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>1054</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" t="s">
-        <v>853</v>
-      </c>
-      <c r="D77" t="s">
-        <v>162</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H77" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I77" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P77" t="str">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1105</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q77" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>1105</v>
-      </c>
-      <c r="B78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" t="s">
-        <v>434</v>
-      </c>
-      <c r="D78" t="s">
-        <v>163</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J78" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P78" t="str">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1055</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q78" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>1055</v>
-      </c>
-      <c r="B79" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" t="s">
-        <v>860</v>
-      </c>
-      <c r="D79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P79" t="str">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1058</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q79" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>1058</v>
-      </c>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" t="s">
-        <v>774</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P80" t="str">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1056</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q80" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>1056</v>
-      </c>
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" t="s">
-        <v>760</v>
-      </c>
-      <c r="D81" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I81" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P81" t="str">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13">
+        <v>1091</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q81" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>1091</v>
-      </c>
-      <c r="B82" t="s">
-        <v>869</v>
-      </c>
-      <c r="C82" t="s">
-        <v>868</v>
-      </c>
-      <c r="D82" t="s">
-        <v>170</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I82" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P82" t="str">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1066</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q82" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>1066</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>875</v>
-      </c>
-      <c r="D83" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I83" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1462</v>
-      </c>
-      <c r="P83" t="str">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13">
+        <v>1076</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q83" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>1076</v>
-      </c>
-      <c r="B84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" t="s">
-        <v>340</v>
-      </c>
-      <c r="D84" t="s">
-        <v>173</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P84" t="str">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1130</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q84" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>1130</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" t="s">
-        <v>524</v>
-      </c>
-      <c r="D85" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P85" t="str">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13">
+        <v>1077</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q85" s="13" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1077</v>
-      </c>
-      <c r="B86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" t="s">
-        <v>340</v>
-      </c>
-      <c r="D86" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I86" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P86" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1047930" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D1047930" s="7"/>
+    <row r="1047929" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1047929" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J86">
-    <sortCondition ref="B2:B86"/>
+  <sortState ref="B2:K85">
+    <sortCondition ref="C2:C85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DesignConsole/ImportAllLangs/RewiseJazyky.xlsx
+++ b/DesignConsole/ImportAllLangs/RewiseJazyky.xlsx
@@ -4972,11 +4972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1047929"/>
+  <dimension ref="A1:Q1047928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:A85"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8317,8 +8317,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047929" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1047929" s="12"/>
+    <row r="1047928" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1047928" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B2:K85">
@@ -8331,12 +8331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P1048256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8389,7 +8388,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14337</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15361</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5121</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11265</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12289</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4097</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6145</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8193</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16385</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10241</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7169</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9217</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>29740</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>30764</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>30746</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25626</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8218</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26650</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5127</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4103</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>31790</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9225</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10249</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4105</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15369</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6153</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16393</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8201</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17417</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5129</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13321</v>
       </c>
@@ -9559,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>18441</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11273</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7177</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12297</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>22538</v>
       </c>
@@ -9739,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11274</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16394</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13322</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9226</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5130</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>23562</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>7178</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12298</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4106</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>18442</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>19466</v>
       </c>
@@ -10135,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6154</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10250</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20490</v>
       </c>
@@ -10243,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>15370</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>17418</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>21514</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14346</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8202</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>31847</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>9228</v>
       </c>
@@ -10492,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12300</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>11276</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>15372</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4108</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5132</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14348</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6156</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13324</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8204</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10252</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>31848</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4122</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>31836</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>30813</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>31837</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>31890</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>30800</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>31824</v>
       </c>
@@ -11119,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>31764</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>30740</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>31814</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>31833</v>
       </c>
@@ -11251,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>30779</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6203</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>7227</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>31803</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4155</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5179</v>
       </c>
@@ -11461,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>28731</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9275</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>29755</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8251</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>31770</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>27674</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>7194</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>12314</v>
       </c>
@@ -11737,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10266</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>28698</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6170</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>11290</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9242</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>31784</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>31839</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>30787</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>31811</v>
       </c>
@@ -12046,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>30724</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>31748</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3153</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3152</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3131</v>
       </c>
@@ -12400,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3084</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3081</v>
       </c>
@@ -12508,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3079</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3073</v>
       </c>
@@ -12616,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2559</v>
       </c>
@@ -12652,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2163</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2155</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2151</v>
       </c>
@@ -12760,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2145</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2143</v>
       </c>
@@ -12832,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2141</v>
       </c>
@@ -12868,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2137</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2128</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2121</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2118</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2115</v>
       </c>
@@ -13084,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2110</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2107</v>
       </c>
@@ -13192,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2098</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2094</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2092</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2080</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2077</v>
       </c>
@@ -13408,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2073</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2072</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2068</v>
       </c>
@@ -13552,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2067</v>
       </c>
@@ -13588,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2064</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2060</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2058</v>
       </c>
@@ -13732,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2055</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2051</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2049</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1534</v>
       </c>
@@ -13912,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1281</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1170</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1169</v>
       </c>
@@ -14020,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1164</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1160</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1159</v>
       </c>
@@ -14128,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1158</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1157</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1156</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1152</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1148</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1146</v>
       </c>
@@ -14488,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1144</v>
       </c>
@@ -14524,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1143</v>
       </c>
@@ -14560,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1141</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1140</v>
       </c>
@@ -14632,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1139</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1138</v>
       </c>
@@ -14740,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1135</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1134</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1133</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1131</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1125</v>
       </c>
@@ -15028,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1124</v>
       </c>
@@ -15100,7 +15099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1122</v>
       </c>
@@ -15136,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1121</v>
       </c>
@@ -15172,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1120</v>
       </c>
@@ -15208,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1118</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1117</v>
       </c>
@@ -15280,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1116</v>
       </c>
@@ -15316,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1115</v>
       </c>
@@ -15352,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1114</v>
       </c>
@@ -15388,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1111</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1109</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1108</v>
       </c>
@@ -15568,7 +15567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1106</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1103</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1096</v>
       </c>
@@ -16072,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1092</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1090</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>1087</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1083</v>
       </c>
@@ -16432,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1080</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1075</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1073</v>
       </c>
@@ -16720,7 +16719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1072</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1070</v>
       </c>
@@ -17008,7 +17007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1064</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1047</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1034</v>
       </c>
@@ -18448,7 +18447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>146</v>
       </c>
@@ -18481,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>145</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>140</v>
       </c>
@@ -18547,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>136</v>
       </c>
@@ -18580,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>135</v>
       </c>
@@ -18613,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>134</v>
       </c>
@@ -18646,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>133</v>
       </c>
@@ -18679,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>132</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>131</v>
       </c>
@@ -18745,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>130</v>
       </c>
@@ -18778,7 +18777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>129</v>
       </c>
@@ -18811,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>128</v>
       </c>
@@ -18844,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>126</v>
       </c>
@@ -18877,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>124</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>122</v>
       </c>
@@ -18943,7 +18942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>120</v>
       </c>
@@ -18976,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>119</v>
       </c>
@@ -19009,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>117</v>
       </c>
@@ -19042,7 +19041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>116</v>
       </c>
@@ -19075,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>115</v>
       </c>
@@ -19108,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>114</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>112</v>
       </c>
@@ -19174,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>111</v>
       </c>
@@ -19207,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>110</v>
       </c>
@@ -19240,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>109</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>108</v>
       </c>
@@ -19306,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>107</v>
       </c>
@@ -19339,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>106</v>
       </c>
@@ -19372,7 +19371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>104</v>
       </c>
@@ -19405,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>103</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>101</v>
       </c>
@@ -19471,7 +19470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>100</v>
       </c>
@@ -19504,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>99</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>98</v>
       </c>
@@ -19570,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>97</v>
       </c>
@@ -19603,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>96</v>
       </c>
@@ -19636,7 +19635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>95</v>
       </c>
@@ -19669,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>94</v>
       </c>
@@ -19702,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>93</v>
       </c>
@@ -19735,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>92</v>
       </c>
@@ -19768,7 +19767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>91</v>
       </c>
@@ -19801,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>90</v>
       </c>
@@ -19834,7 +19833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>89</v>
       </c>
@@ -19867,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>87</v>
       </c>
@@ -19900,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>86</v>
       </c>
@@ -19933,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>85</v>
       </c>
@@ -19966,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>84</v>
       </c>
@@ -19999,7 +19998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>83</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>82</v>
       </c>
@@ -20065,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>81</v>
       </c>
@@ -20098,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>80</v>
       </c>
@@ -20131,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>79</v>
       </c>
@@ -20164,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>78</v>
       </c>
@@ -20197,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>77</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>76</v>
       </c>
@@ -20263,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>75</v>
       </c>
@@ -20296,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>74</v>
       </c>
@@ -20329,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>73</v>
       </c>
@@ -20362,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>72</v>
       </c>
@@ -20395,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>71</v>
       </c>
@@ -20428,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>70</v>
       </c>
@@ -20461,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>69</v>
       </c>
@@ -20494,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>68</v>
       </c>
@@ -20527,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>67</v>
       </c>
@@ -20560,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>66</v>
       </c>
@@ -20593,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>65</v>
       </c>
@@ -20626,7 +20625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>64</v>
       </c>
@@ -20659,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>63</v>
       </c>
@@ -20692,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>62</v>
       </c>
@@ -20725,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>60</v>
       </c>
@@ -20758,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>59</v>
       </c>
@@ -20791,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>58</v>
       </c>
@@ -20824,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>57</v>
       </c>
@@ -20857,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>56</v>
       </c>
@@ -20890,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>55</v>
       </c>
@@ -20923,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>54</v>
       </c>
@@ -20956,7 +20955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>53</v>
       </c>
@@ -20989,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>52</v>
       </c>
@@ -21022,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>51</v>
       </c>
@@ -21055,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>50</v>
       </c>
@@ -21088,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>49</v>
       </c>
@@ -21121,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>48</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>47</v>
       </c>
@@ -21187,7 +21186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>46</v>
       </c>
@@ -21220,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>45</v>
       </c>
@@ -21253,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>44</v>
       </c>
@@ -21286,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>43</v>
       </c>
@@ -21319,7 +21318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>42</v>
       </c>
@@ -21352,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>41</v>
       </c>
@@ -21385,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>40</v>
       </c>
@@ -21418,7 +21417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>39</v>
       </c>
@@ -21451,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>38</v>
       </c>
@@ -21484,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>37</v>
       </c>
@@ -21517,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>36</v>
       </c>
@@ -21550,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>35</v>
       </c>
@@ -21583,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>34</v>
       </c>
@@ -21616,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>33</v>
       </c>
@@ -21649,7 +21648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>32</v>
       </c>
@@ -21682,7 +21681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>31</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>30</v>
       </c>
@@ -21748,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>29</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>28</v>
       </c>
@@ -21814,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>27</v>
       </c>
@@ -21847,7 +21846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>26</v>
       </c>
@@ -21880,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>25</v>
       </c>
@@ -21913,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>24</v>
       </c>
@@ -21946,7 +21945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>23</v>
       </c>
@@ -21979,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>22</v>
       </c>
@@ -22012,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>21</v>
       </c>
@@ -22045,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>20</v>
       </c>
@@ -22078,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>19</v>
       </c>
@@ -22111,7 +22110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>18</v>
       </c>
@@ -22144,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>17</v>
       </c>
@@ -22177,7 +22176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>16</v>
       </c>
@@ -22210,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>15</v>
       </c>
@@ -22243,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>14</v>
       </c>
@@ -22276,7 +22275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>13</v>
       </c>
@@ -22309,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>12</v>
       </c>
@@ -22342,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>11</v>
       </c>
@@ -22375,7 +22374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>10</v>
       </c>
@@ -22408,7 +22407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>9</v>
       </c>
@@ -22441,7 +22440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>8</v>
       </c>
@@ -22474,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>7</v>
       </c>
@@ -22507,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>6</v>
       </c>
@@ -22540,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>5</v>
       </c>
@@ -22573,7 +22572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>4</v>
       </c>
@@ -22606,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>3</v>
       </c>
@@ -22639,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2</v>
       </c>
@@ -22672,7 +22671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1</v>
       </c>
@@ -22709,13 +22708,6 @@
       <c r="D1048256" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="P1:P412">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A21:J283">
     <sortCondition ref="B1"/>
   </sortState>

--- a/DesignConsole/ImportAllLangs/RewiseJazyky.xlsx
+++ b/DesignConsole/ImportAllLangs/RewiseJazyky.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8935" uniqueCount="1464">
   <si>
     <t>Chinese (Macau SAR)</t>
   </si>
@@ -4427,9 +4427,6 @@
   </si>
   <si>
     <t>CheckAlias</t>
-  </si>
-  <si>
-    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -4624,7 +4621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4657,6 +4654,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -4972,11 +4970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1047928"/>
+  <dimension ref="B1:Q1047928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4997,10 +4995,7 @@
     <col min="18" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>1464</v>
-      </c>
+    <row r="1" spans="2:17" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
@@ -5038,10 +5033,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="13">
         <v>1078</v>
       </c>
@@ -5077,10 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>1052</v>
       </c>
@@ -5116,10 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>1025</v>
       </c>
@@ -5155,10 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>1067</v>
       </c>
@@ -5194,10 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>1101</v>
       </c>
@@ -5233,10 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>1068</v>
       </c>
@@ -5272,10 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>1093</v>
       </c>
@@ -5314,10 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>1069</v>
       </c>
@@ -5353,10 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>1059</v>
       </c>
@@ -5392,10 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>5146</v>
       </c>
@@ -5431,10 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>1150</v>
       </c>
@@ -5470,10 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>1026</v>
       </c>
@@ -5509,10 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>1027</v>
       </c>
@@ -5548,10 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>1155</v>
       </c>
@@ -5587,10 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>1050</v>
       </c>
@@ -5626,10 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>1029</v>
       </c>
@@ -5665,10 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>1030</v>
       </c>
@@ -5704,10 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>1043</v>
       </c>
@@ -5743,10 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>1033</v>
       </c>
@@ -5782,10 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>2057</v>
       </c>
@@ -5821,10 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>1061</v>
       </c>
@@ -5860,10 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>1035</v>
       </c>
@@ -5899,10 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>1036</v>
       </c>
@@ -5938,10 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>1110</v>
       </c>
@@ -5977,10 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>1079</v>
       </c>
@@ -6016,10 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>1031</v>
       </c>
@@ -6055,10 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>1032</v>
       </c>
@@ -6094,10 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <v>1095</v>
       </c>
@@ -6133,10 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
         <v>1128</v>
       </c>
@@ -6172,10 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>30</v>
-      </c>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="13">
         <v>1037</v>
       </c>
@@ -6211,10 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
         <v>1081</v>
       </c>
@@ -6250,10 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <v>1038</v>
       </c>
@@ -6289,10 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>2052</v>
       </c>
@@ -6328,10 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <v>3076</v>
       </c>
@@ -6367,10 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <v>1039</v>
       </c>
@@ -6406,10 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
-        <v>36</v>
-      </c>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <v>1136</v>
       </c>
@@ -6445,10 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
-        <v>37</v>
-      </c>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
         <v>1057</v>
       </c>
@@ -6484,10 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="13">
         <v>2108</v>
       </c>
@@ -6523,10 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>39</v>
-      </c>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>1040</v>
       </c>
@@ -6562,10 +6440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>40</v>
-      </c>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
         <v>1041</v>
       </c>
@@ -6601,10 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
-        <v>41</v>
-      </c>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <v>1099</v>
       </c>
@@ -6640,10 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
-        <v>42</v>
-      </c>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
         <v>1107</v>
       </c>
@@ -6679,10 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>43</v>
-      </c>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <v>1089</v>
       </c>
@@ -6718,10 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
-        <v>44</v>
-      </c>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <v>1042</v>
       </c>
@@ -6757,10 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <v>1088</v>
       </c>
@@ -6796,10 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
-        <v>46</v>
-      </c>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <v>1062</v>
       </c>
@@ -6835,10 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
         <v>1063</v>
       </c>
@@ -6874,10 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
-        <v>48</v>
-      </c>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <v>1071</v>
       </c>
@@ -6913,10 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
-        <v>49</v>
-      </c>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>1086</v>
       </c>
@@ -6952,10 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
-        <v>50</v>
-      </c>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>1100</v>
       </c>
@@ -6991,10 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
-        <v>51</v>
-      </c>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>1082</v>
       </c>
@@ -7030,10 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
-        <v>52</v>
-      </c>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>1153</v>
       </c>
@@ -7069,10 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
-        <v>53</v>
-      </c>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>1102</v>
       </c>
@@ -7108,10 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
-        <v>54</v>
-      </c>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>1104</v>
       </c>
@@ -7147,10 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
-        <v>55</v>
-      </c>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>1044</v>
       </c>
@@ -7186,10 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
-        <v>56</v>
-      </c>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>1154</v>
       </c>
@@ -7225,10 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
-        <v>57</v>
-      </c>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>1123</v>
       </c>
@@ -7264,10 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
-        <v>58</v>
-      </c>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>1065</v>
       </c>
@@ -7303,10 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
-        <v>59</v>
-      </c>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>1045</v>
       </c>
@@ -7342,10 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
-        <v>60</v>
-      </c>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>1046</v>
       </c>
@@ -7381,10 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>2070</v>
       </c>
@@ -7420,10 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
-        <v>62</v>
-      </c>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>1094</v>
       </c>
@@ -7459,10 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>3179</v>
       </c>
@@ -7498,10 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>1048</v>
       </c>
@@ -7537,10 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>1049</v>
       </c>
@@ -7576,10 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
-        <v>66</v>
-      </c>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>2074</v>
       </c>
@@ -7615,10 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>1132</v>
       </c>
@@ -7654,10 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>1074</v>
       </c>
@@ -7693,10 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>1051</v>
       </c>
@@ -7732,10 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
-        <v>70</v>
-      </c>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>1060</v>
       </c>
@@ -7771,10 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>3082</v>
       </c>
@@ -7810,10 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
-        <v>72</v>
-      </c>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>1053</v>
       </c>
@@ -7849,10 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>1097</v>
       </c>
@@ -7888,10 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
-        <v>74</v>
-      </c>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>1098</v>
       </c>
@@ -7927,10 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>1054</v>
       </c>
@@ -7966,10 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
-        <v>76</v>
-      </c>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>1105</v>
       </c>
@@ -8005,10 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>1055</v>
       </c>
@@ -8044,10 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>1058</v>
       </c>
@@ -8083,10 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>1056</v>
       </c>
@@ -8122,10 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="13">
-        <v>80</v>
-      </c>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>1091</v>
       </c>
@@ -8161,10 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
         <v>1066</v>
       </c>
@@ -8200,10 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
-        <v>82</v>
-      </c>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B83" s="13">
         <v>1076</v>
       </c>
@@ -8239,10 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B84" s="13">
         <v>1130</v>
       </c>
@@ -8278,10 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
-        <v>84</v>
-      </c>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B85" s="13">
         <v>1077</v>
       </c>
@@ -8316,6 +8059,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B87" s="14"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="1047928" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E1047928" s="12"/>
@@ -8334,8 +8085,8 @@
   <dimension ref="A1:P1048256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
